--- a/src/querryRunner/stores/stores.xlsx
+++ b/src/querryRunner/stores/stores.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\visha\Desktop\New folder (2)\Zopper\src\querryRunner\stores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05850D4A-ECF7-4223-A282-0A6AC6709772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782EEFCE-165C-478F-AA67-B0108956B198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5076" yWindow="8352" windowWidth="17280" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,135 +20,840 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
-  <si>
-    <t>storeName</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>fullAddress</t>
-  </si>
-  <si>
-    <t>Lucky Electronics</t>
-  </si>
-  <si>
-    <t>Sharma Mobiles</t>
-  </si>
-  <si>
-    <t>Gupta Computers</t>
-  </si>
-  <si>
-    <t>Singh Electronics</t>
-  </si>
-  <si>
-    <t>Patel Digital World</t>
-  </si>
-  <si>
-    <t>Kumar Mobile Hub</t>
-  </si>
-  <si>
-    <t>Verma Electronics</t>
-  </si>
-  <si>
-    <t>Reddy Tech Store</t>
-  </si>
-  <si>
-    <t>Joshi Mobile &amp; Computers</t>
-  </si>
-  <si>
-    <t>Chawla Electronics</t>
-  </si>
-  <si>
-    <t>Delhi</t>
-  </si>
-  <si>
-    <t>Mumbai</t>
-  </si>
-  <si>
-    <t>Bengaluru</t>
-  </si>
-  <si>
-    <t>Lucknow</t>
-  </si>
-  <si>
-    <t>Ahmedabad</t>
-  </si>
-  <si>
-    <t>Jaipur</t>
-  </si>
-  <si>
-    <t>Kanpur</t>
-  </si>
-  <si>
-    <t>Hyderabad</t>
-  </si>
-  <si>
-    <t>Pune</t>
-  </si>
-  <si>
-    <t>Chandigarh</t>
-  </si>
-  <si>
-    <t>Shop 21, Karol Bagh Market, Delhi</t>
-  </si>
-  <si>
-    <t>Ground Floor, Ghatkopar West, Mumbai</t>
-  </si>
-  <si>
-    <t>Opposite MG Road Metro Station, Bengaluru</t>
-  </si>
-  <si>
-    <t>Shop 12, Hazratganj Market, Lucknow</t>
-  </si>
-  <si>
-    <t>Near Manek Chowk, Ahmedabad</t>
-  </si>
-  <si>
-    <t>MI Road, Opposite Raj Mandir Cinema, Jaipur</t>
-  </si>
-  <si>
-    <t>Mall Road, Near Naveen Market, Kanpur</t>
-  </si>
-  <si>
-    <t>Ameerpet Main Road, Hyderabad</t>
-  </si>
-  <si>
-    <t>FC Road, Opposite Goodluck Cafe, Pune</t>
-  </si>
-  <si>
-    <t>Sector 22 Market, Chandigarh</t>
-  </si>
-  <si>
-    <t>68b2dd31cd229c0eedddf4cf, 68b2dd31cd229c0eedddf4d0</t>
-  </si>
-  <si>
-    <t>68b2dd31cd229c0eedddf4d1, 68b2dd32cd229c0eedddf4d3</t>
-  </si>
-  <si>
-    <t>68b2dd32cd229c0eedddf4d6, 68b2dd33cd229c0eedddf4d7</t>
-  </si>
-  <si>
-    <t>68b2dd31cd229c0eedddf4d2, 68b2dd32cd229c0eedddf4d5</t>
-  </si>
-  <si>
-    <t>68b2dd32cd229c0eedddf4d4, 68b2dd31cd229c0eedddf4d1</t>
-  </si>
-  <si>
-    <t>68b2dd32cd229c0eedddf4d3, 68b2dd32cd229c0eedddf4d4</t>
-  </si>
-  <si>
-    <t>68b2dd33cd229c0eedddf4d8, 68b2dd32cd229c0eedddf4d6</t>
-  </si>
-  <si>
-    <t>68b2dd31cd229c0eedddf4cf, 68b2dd32cd229c0eedddf4d5</t>
-  </si>
-  <si>
-    <t>68b2dd31cd229c0eedddf4d0, 68b2dd33cd229c0eedddf4d7</t>
-  </si>
-  <si>
-    <t>68b2dd32cd229c0eedddf4d2, 68b2dd31cd229c0eedddf4d1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="279">
+  <si>
+    <t>Store_ID</t>
+  </si>
+  <si>
+    <t>Store_Name</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>store_000001</t>
+  </si>
+  <si>
+    <t>store_000002</t>
+  </si>
+  <si>
+    <t>store_000003</t>
+  </si>
+  <si>
+    <t>store_000004</t>
+  </si>
+  <si>
+    <t>store_000005</t>
+  </si>
+  <si>
+    <t>store_000006</t>
+  </si>
+  <si>
+    <t>store_000007</t>
+  </si>
+  <si>
+    <t>store_000008</t>
+  </si>
+  <si>
+    <t>store_000009</t>
+  </si>
+  <si>
+    <t>store_000010</t>
+  </si>
+  <si>
+    <t>store_000011</t>
+  </si>
+  <si>
+    <t>store_000012</t>
+  </si>
+  <si>
+    <t>store_000013</t>
+  </si>
+  <si>
+    <t>store_000014</t>
+  </si>
+  <si>
+    <t>store_000015</t>
+  </si>
+  <si>
+    <t>store_000016</t>
+  </si>
+  <si>
+    <t>store_000017</t>
+  </si>
+  <si>
+    <t>store_000018</t>
+  </si>
+  <si>
+    <t>store_000019</t>
+  </si>
+  <si>
+    <t>store_000020</t>
+  </si>
+  <si>
+    <t>store_000021</t>
+  </si>
+  <si>
+    <t>store_000022</t>
+  </si>
+  <si>
+    <t>store_000023</t>
+  </si>
+  <si>
+    <t>store_000024</t>
+  </si>
+  <si>
+    <t>store_000025</t>
+  </si>
+  <si>
+    <t>store_000026</t>
+  </si>
+  <si>
+    <t>store_000027</t>
+  </si>
+  <si>
+    <t>store_000028</t>
+  </si>
+  <si>
+    <t>store_000029</t>
+  </si>
+  <si>
+    <t>store_000030</t>
+  </si>
+  <si>
+    <t>store_000031</t>
+  </si>
+  <si>
+    <t>store_000032</t>
+  </si>
+  <si>
+    <t>store_000033</t>
+  </si>
+  <si>
+    <t>store_000034</t>
+  </si>
+  <si>
+    <t>store_000035</t>
+  </si>
+  <si>
+    <t>store_000036</t>
+  </si>
+  <si>
+    <t>store_000037</t>
+  </si>
+  <si>
+    <t>store_000038</t>
+  </si>
+  <si>
+    <t>store_000039</t>
+  </si>
+  <si>
+    <t>store_000040</t>
+  </si>
+  <si>
+    <t>store_000041</t>
+  </si>
+  <si>
+    <t>store_000042</t>
+  </si>
+  <si>
+    <t>store_000043</t>
+  </si>
+  <si>
+    <t>store_000044</t>
+  </si>
+  <si>
+    <t>store_000045</t>
+  </si>
+  <si>
+    <t>store_000046</t>
+  </si>
+  <si>
+    <t>store_000047</t>
+  </si>
+  <si>
+    <t>store_000048</t>
+  </si>
+  <si>
+    <t>store_000049</t>
+  </si>
+  <si>
+    <t>store_000050</t>
+  </si>
+  <si>
+    <t>store_000051</t>
+  </si>
+  <si>
+    <t>store_000052</t>
+  </si>
+  <si>
+    <t>store_000053</t>
+  </si>
+  <si>
+    <t>store_000054</t>
+  </si>
+  <si>
+    <t>store_000055</t>
+  </si>
+  <si>
+    <t>store_000056</t>
+  </si>
+  <si>
+    <t>store_000057</t>
+  </si>
+  <si>
+    <t>store_000058</t>
+  </si>
+  <si>
+    <t>store_000059</t>
+  </si>
+  <si>
+    <t>store_000060</t>
+  </si>
+  <si>
+    <t>store_000061</t>
+  </si>
+  <si>
+    <t>store_000062</t>
+  </si>
+  <si>
+    <t>store_000063</t>
+  </si>
+  <si>
+    <t>store_000064</t>
+  </si>
+  <si>
+    <t>store_000065</t>
+  </si>
+  <si>
+    <t>store_000066</t>
+  </si>
+  <si>
+    <t>store_000067</t>
+  </si>
+  <si>
+    <t>store_000068</t>
+  </si>
+  <si>
+    <t>store_000069</t>
+  </si>
+  <si>
+    <t>store_000070</t>
+  </si>
+  <si>
+    <t>store_000071</t>
+  </si>
+  <si>
+    <t>store_000072</t>
+  </si>
+  <si>
+    <t>store_000073</t>
+  </si>
+  <si>
+    <t>store_000074</t>
+  </si>
+  <si>
+    <t>store_000075</t>
+  </si>
+  <si>
+    <t>store_000076</t>
+  </si>
+  <si>
+    <t>store_000077</t>
+  </si>
+  <si>
+    <t>store_000078</t>
+  </si>
+  <si>
+    <t>store_000079</t>
+  </si>
+  <si>
+    <t>store_000080</t>
+  </si>
+  <si>
+    <t>store_000081</t>
+  </si>
+  <si>
+    <t>store_000082</t>
+  </si>
+  <si>
+    <t>store_000083</t>
+  </si>
+  <si>
+    <t>store_000084</t>
+  </si>
+  <si>
+    <t>store_000085</t>
+  </si>
+  <si>
+    <t>store_000086</t>
+  </si>
+  <si>
+    <t>store_000087</t>
+  </si>
+  <si>
+    <t>store_000088</t>
+  </si>
+  <si>
+    <t>store_000089</t>
+  </si>
+  <si>
+    <t>store_000090</t>
+  </si>
+  <si>
+    <t>store_000091</t>
+  </si>
+  <si>
+    <t>store_000092</t>
+  </si>
+  <si>
+    <t>store_000093</t>
+  </si>
+  <si>
+    <t>store_000094</t>
+  </si>
+  <si>
+    <t>store_000095</t>
+  </si>
+  <si>
+    <t>store_000096</t>
+  </si>
+  <si>
+    <t>store_000097</t>
+  </si>
+  <si>
+    <t>store_000098</t>
+  </si>
+  <si>
+    <t>store_000099</t>
+  </si>
+  <si>
+    <t>store_000100</t>
+  </si>
+  <si>
+    <t>store_000101</t>
+  </si>
+  <si>
+    <t>store_000102</t>
+  </si>
+  <si>
+    <t>store_000103</t>
+  </si>
+  <si>
+    <t>store_000104</t>
+  </si>
+  <si>
+    <t>store_000105</t>
+  </si>
+  <si>
+    <t>store_000106</t>
+  </si>
+  <si>
+    <t>store_000107</t>
+  </si>
+  <si>
+    <t>store_000108</t>
+  </si>
+  <si>
+    <t>store_000109</t>
+  </si>
+  <si>
+    <t>store_000110</t>
+  </si>
+  <si>
+    <t>store_000111</t>
+  </si>
+  <si>
+    <t>store_000112</t>
+  </si>
+  <si>
+    <t>store_000113</t>
+  </si>
+  <si>
+    <t>store_000114</t>
+  </si>
+  <si>
+    <t>store_000115</t>
+  </si>
+  <si>
+    <t>VS-UP(GAUR CHOWK)</t>
+  </si>
+  <si>
+    <t>VS-UP(RAJ NAGAR DC) BR</t>
+  </si>
+  <si>
+    <t>VS-UP(INDIRAPURAM) BR</t>
+  </si>
+  <si>
+    <t>VS-UP (NOIDA SEC.18) BR</t>
+  </si>
+  <si>
+    <t>VS-Up(Greater Noida) Br</t>
+  </si>
+  <si>
+    <t>Croma-Noida-Sector 122 A555</t>
+  </si>
+  <si>
+    <t>Croma-Noida-Mall of India A151</t>
+  </si>
+  <si>
+    <t>Croma-Ghazibad- Gaur Central RDC Mall A122</t>
+  </si>
+  <si>
+    <t>Croma-Noida-Logix Mall A135</t>
+  </si>
+  <si>
+    <t>Croma-Noida-iThum’s Galleria A497</t>
+  </si>
+  <si>
+    <t>Croma-Greater Noida-Ansal Plaza Mall A023</t>
+  </si>
+  <si>
+    <t>Croma-Noida-Gaur Mall A189</t>
+  </si>
+  <si>
+    <t>Croma-Noida-Golden I A544</t>
+  </si>
+  <si>
+    <t>Croma-Ghazibad-Aditya Mall A024</t>
+  </si>
+  <si>
+    <t>Croma-Noida-Expo Plaza A718</t>
+  </si>
+  <si>
+    <t>Croma-Ghaziabad-Raj Nagar Extension A384</t>
+  </si>
+  <si>
+    <t>Croma-Ghazibad-Pacific Mall A022</t>
+  </si>
+  <si>
+    <t>Croma-Bulandshahr A361</t>
+  </si>
+  <si>
+    <t>Croma-Agra-Fatehabad Road A700</t>
+  </si>
+  <si>
+    <t>Croma-Agra-SRK Mall A284</t>
+  </si>
+  <si>
+    <t>Croma-Agra-Church Road A612</t>
+  </si>
+  <si>
+    <t>ELECTRONIC PARADISE UPGT028072</t>
+  </si>
+  <si>
+    <t>Agarwal Enterprises CAG0328</t>
+  </si>
+  <si>
+    <t>Air Fores Canteen UPCS000013</t>
+  </si>
+  <si>
+    <t>AIR PAVILION UPGT046619</t>
+  </si>
+  <si>
+    <t>AIRNET UPGT038750</t>
+  </si>
+  <si>
+    <t>Ankur Electrical UPGT004507</t>
+  </si>
+  <si>
+    <t>AR ELECTRONIC AND FURNITURE CAR0685</t>
+  </si>
+  <si>
+    <t>Ashiana Enterprises CAA0439</t>
+  </si>
+  <si>
+    <t>ASHOKA SHOPPING MALL UPGT013880</t>
+  </si>
+  <si>
+    <t>Beena Enterprises CBE0239</t>
+  </si>
+  <si>
+    <t>BHARAT ELECTRICALS CBH0963</t>
+  </si>
+  <si>
+    <t>BHASIN BROTHERS UPGT020359</t>
+  </si>
+  <si>
+    <t>BHOOTPOORV ARDHSAINIK BAL CANTEEN KARMCHARI KALYAN SAMITI UPGT049393</t>
+  </si>
+  <si>
+    <t>Bm Electricals CBM0020</t>
+  </si>
+  <si>
+    <t>BRIJ SALES UPGT044184</t>
+  </si>
+  <si>
+    <t>Bunty Electronic UPGT039394</t>
+  </si>
+  <si>
+    <t>DIGI 1 UPGT039275</t>
+  </si>
+  <si>
+    <t>DIGITAL GOAL UPRR000057</t>
+  </si>
+  <si>
+    <t>DIGITAL WORLD UPOT000436</t>
+  </si>
+  <si>
+    <t>DURGA SPARES UPCS000014</t>
+  </si>
+  <si>
+    <t>DURGA SPARES UPRR000084</t>
+  </si>
+  <si>
+    <t>ELECTRIC POINT UPGT019037</t>
+  </si>
+  <si>
+    <t>Eleena Electricals CEL0314</t>
+  </si>
+  <si>
+    <t>Elmec CEL0179</t>
+  </si>
+  <si>
+    <t>ESM FORCE CANTEEN UPRR000183</t>
+  </si>
+  <si>
+    <t>GARG ENTERPRISES UPRR000122</t>
+  </si>
+  <si>
+    <t>GARGH SALES UPOT000007</t>
+  </si>
+  <si>
+    <t>GENIUS CARE REFRIGERATOR UPGT040891</t>
+  </si>
+  <si>
+    <t>GOLDEN RAM CANTEEN UPCS000015</t>
+  </si>
+  <si>
+    <t>Gopal Jee Electricals CGO0177</t>
+  </si>
+  <si>
+    <t>GOYAL TELEVISION (VALUE PLUS) UPGT023632</t>
+  </si>
+  <si>
+    <t>GUPTA FURNITURE AND ELECTRONICS UPGT042972</t>
+  </si>
+  <si>
+    <t>Gupta Light World CGU2268</t>
+  </si>
+  <si>
+    <t>Gupta Trading Company CGU0371</t>
+  </si>
+  <si>
+    <t>HARISH WATCH ELECTRONICS UPGT006406</t>
+  </si>
+  <si>
+    <t>HARKUT ELECTRONICS CHA8041</t>
+  </si>
+  <si>
+    <t>J.B. ELECTRONICS AND ELECTRICALS UPGT033428</t>
+  </si>
+  <si>
+    <t>JAI DURGE ELECTRONICS WATCH CENTER UPGT013409</t>
+  </si>
+  <si>
+    <t>KARTIK ELECTRONICS UPGT013235</t>
+  </si>
+  <si>
+    <t>KASHISH ENTERPRISES UPGT011197</t>
+  </si>
+  <si>
+    <t>KAVERI ELECTRONICS AND FURNITURES UPGT015575</t>
+  </si>
+  <si>
+    <t>KHURANA ELECTRONICS UPGT012561</t>
+  </si>
+  <si>
+    <t>KIRTI ELECTROWORLD UPGT029024</t>
+  </si>
+  <si>
+    <t>Kumar Electric Store CKU0095</t>
+  </si>
+  <si>
+    <t>LAXMI ELECTRONICS UPGT016447</t>
+  </si>
+  <si>
+    <t>LAXMI ELECTRONICS AND HOME APPLIANCES UPGT021232</t>
+  </si>
+  <si>
+    <t>M S DISTRIBUTORS UPGT046160</t>
+  </si>
+  <si>
+    <t>M/S CHAUHAN FURNITURE UPGT048503</t>
+  </si>
+  <si>
+    <t>Maha Lakshmi Enterprises CMA2846</t>
+  </si>
+  <si>
+    <t>MAMATA ENTERPRISES CMA2590</t>
+  </si>
+  <si>
+    <t>METRO ELECTRICALS UPGT018479</t>
+  </si>
+  <si>
+    <t>MIRZA COMMUNICATIONS UPRR000056</t>
+  </si>
+  <si>
+    <t>Naveen Muskan Electronics CNA1207</t>
+  </si>
+  <si>
+    <t>NEW MAHALAXMI ELECTRONICS UPGT023633</t>
+  </si>
+  <si>
+    <t>NIJHAWAN ELECTRONICS UPGT019548</t>
+  </si>
+  <si>
+    <t>Prashant Electric Company CPR0911</t>
+  </si>
+  <si>
+    <t>PUNJAB ELECTRONICS UPGT005029</t>
+  </si>
+  <si>
+    <t>R.D.ELECTRONICS UPGT025567</t>
+  </si>
+  <si>
+    <t>Rajput Electronic CRA2134</t>
+  </si>
+  <si>
+    <t>RAM ELECTRONICS UPGT021356</t>
+  </si>
+  <si>
+    <t>S K Engineers. CSK0037</t>
+  </si>
+  <si>
+    <t>SARANG ELECTRONICS UPGT017442</t>
+  </si>
+  <si>
+    <t>Shankar Traders CSH3574</t>
+  </si>
+  <si>
+    <t>Shanti Electricals And Home Applian CSH3290</t>
+  </si>
+  <si>
+    <t>Shiv Electric Centre CSH2753</t>
+  </si>
+  <si>
+    <t>Shiv Electric Experience Centre CSH4251</t>
+  </si>
+  <si>
+    <t>SHIV LIGHT HOUSE AND BROTHERS CSH3526</t>
+  </si>
+  <si>
+    <t>Shiva Electricals CSH0909</t>
+  </si>
+  <si>
+    <t>SHREE ELECTRONIC &amp; FURNITURE UPGT040038</t>
+  </si>
+  <si>
+    <t>SHREE HARI KRIPA ELECTRONICS UPGT042262</t>
+  </si>
+  <si>
+    <t>SHREE SHYAM ELECTRICALS UPGT022617</t>
+  </si>
+  <si>
+    <t>SHRI KRISHNA ENTERPRISES UPGT039850</t>
+  </si>
+  <si>
+    <t>Shri Sai Traders CSH2511</t>
+  </si>
+  <si>
+    <t>Shubham Agencies CSH0184</t>
+  </si>
+  <si>
+    <t>SHUBHAM ENTERPRISES(VALUE PLUS) UPGT038613</t>
+  </si>
+  <si>
+    <t>SHYAM ELECTRICALS CSH2898</t>
+  </si>
+  <si>
+    <t>Shyam Electricals UPGT003427</t>
+  </si>
+  <si>
+    <t>Siddharth Electronics CSI0696</t>
+  </si>
+  <si>
+    <t>SINGHAL AGENCIES UPGT048464</t>
+  </si>
+  <si>
+    <t>SK ELECTRONICS UPGT026719</t>
+  </si>
+  <si>
+    <t>SMART ELCTRONICS UPGT016394</t>
+  </si>
+  <si>
+    <t>Sub Area UPRR000099</t>
+  </si>
+  <si>
+    <t>SUPER ELECTRONICS UPGT050327</t>
+  </si>
+  <si>
+    <t>T.V EMPORIUM UPGT025646</t>
+  </si>
+  <si>
+    <t>TRENDY HOME MART UPGT030106</t>
+  </si>
+  <si>
+    <t>V I P ELECTRO POINT UPGT050821</t>
+  </si>
+  <si>
+    <t>V.S.DISTRIBUTORS UPGT015847</t>
+  </si>
+  <si>
+    <t>VALUE PLUS UPRR000066</t>
+  </si>
+  <si>
+    <t>Value Plus Rampur Road UPMR000113</t>
+  </si>
+  <si>
+    <t>VARDHMAN ELECTRONICS UPGT047385</t>
+  </si>
+  <si>
+    <t>VARDHMAN ELECTRONICS UPRR000076</t>
+  </si>
+  <si>
+    <t>VASHISHT ENTERPRISES UPGT040694</t>
+  </si>
+  <si>
+    <t>VEETRAAG TRADING CO (VALUE PLUS) UPGT031269</t>
+  </si>
+  <si>
+    <t>VKJ DISTRIBUTION ( VARDHMAN ELECTRONICS) UPGT013128</t>
+  </si>
+  <si>
+    <t>Greater Noida</t>
+  </si>
+  <si>
+    <t>Ghaziabad</t>
+  </si>
+  <si>
+    <t>Indirapuram</t>
+  </si>
+  <si>
+    <t>Noida</t>
+  </si>
+  <si>
+    <t>Bulandshar</t>
+  </si>
+  <si>
+    <t>Fatehabad</t>
+  </si>
+  <si>
+    <t>Agra</t>
+  </si>
+  <si>
+    <t>Mainpuri</t>
+  </si>
+  <si>
+    <t>Dadri</t>
+  </si>
+  <si>
+    <t>Moradabad</t>
+  </si>
+  <si>
+    <t>Meerut</t>
+  </si>
+  <si>
+    <t>Firozabad</t>
+  </si>
+  <si>
+    <t>SAHARANPUR</t>
+  </si>
+  <si>
+    <t>Muzaffarnagar</t>
+  </si>
+  <si>
+    <t>Road</t>
+  </si>
+  <si>
+    <t>Rampur</t>
+  </si>
+  <si>
+    <t>Aligarh</t>
+  </si>
+  <si>
+    <t>Muradnagar</t>
+  </si>
+  <si>
+    <t>Saharanpur</t>
+  </si>
+  <si>
+    <t>Kanta Road</t>
+  </si>
+  <si>
+    <t>Bulandshahr</t>
+  </si>
+  <si>
+    <t>Bijnore</t>
+  </si>
+  <si>
+    <t>Nagar</t>
+  </si>
+  <si>
+    <t>Up</t>
+  </si>
+  <si>
+    <t>Mathura</t>
+  </si>
+  <si>
+    <t>MODINAGAR-UP</t>
+  </si>
+  <si>
+    <t>HWAR</t>
+  </si>
+  <si>
+    <t>Petrol Pump,</t>
+  </si>
+  <si>
+    <t>Seohara</t>
+  </si>
+  <si>
+    <t>IONaN</t>
+  </si>
+  <si>
+    <t>Sikandrabad</t>
+  </si>
+  <si>
+    <t>Near Kapil hospital</t>
+  </si>
+  <si>
+    <t>Chandpur</t>
+  </si>
+  <si>
+    <t>Khurja</t>
+  </si>
+  <si>
+    <t>Noida,</t>
+  </si>
+  <si>
+    <t>Hapur</t>
+  </si>
+  <si>
+    <t>FIROZABAD</t>
+  </si>
+  <si>
+    <t>Etah</t>
+  </si>
+  <si>
+    <t>IALdi</t>
+  </si>
+  <si>
+    <t>Gandhi Moorti</t>
+  </si>
+  <si>
+    <t>Pump</t>
+  </si>
+  <si>
+    <t>Aat</t>
+  </si>
+  <si>
+    <t>BULANDSHAHR</t>
+  </si>
+  <si>
+    <t>brand_010</t>
+  </si>
+  <si>
+    <t>brand_002</t>
   </si>
   <si>
     <t>partnerBrandIds</t>
@@ -519,13 +1224,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.5546875" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="37.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -538,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -546,13 +1257,13 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>233</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -560,13 +1271,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>234</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -574,13 +1285,13 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>235</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -588,13 +1299,13 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>236</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -602,13 +1313,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>233</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -616,13 +1327,13 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>236</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -630,13 +1341,13 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>124</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>236</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -644,13 +1355,13 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>234</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -658,13 +1369,13 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>236</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -672,13 +1383,1483 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" t="s">
+        <v>236</v>
+      </c>
+      <c r="D11" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" t="s">
+        <v>236</v>
+      </c>
+      <c r="D12" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D13" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D14" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15" t="s">
+        <v>234</v>
+      </c>
+      <c r="D15" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" t="s">
+        <v>236</v>
+      </c>
+      <c r="D16" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" t="s">
+        <v>234</v>
+      </c>
+      <c r="D17" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" t="s">
+        <v>234</v>
+      </c>
+      <c r="D18" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" t="s">
+        <v>237</v>
+      </c>
+      <c r="D19" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" t="s">
+        <v>238</v>
+      </c>
+      <c r="D20" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B21" t="s">
+        <v>137</v>
+      </c>
+      <c r="C21" t="s">
+        <v>239</v>
+      </c>
+      <c r="D21" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22" t="s">
+        <v>239</v>
+      </c>
+      <c r="D22" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>139</v>
+      </c>
+      <c r="C23" t="s">
+        <v>236</v>
+      </c>
+      <c r="D23" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>140</v>
+      </c>
+      <c r="C24" t="s">
+        <v>240</v>
+      </c>
+      <c r="D24" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>141</v>
+      </c>
+      <c r="C25" t="s">
+        <v>236</v>
+      </c>
+      <c r="D25" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>142</v>
+      </c>
+      <c r="C26" t="s">
+        <v>241</v>
+      </c>
+      <c r="D26" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>143</v>
+      </c>
+      <c r="C27" t="s">
+        <v>234</v>
+      </c>
+      <c r="D27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" t="s">
+        <v>236</v>
+      </c>
+      <c r="D28" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>145</v>
+      </c>
+      <c r="C29" t="s">
+        <v>240</v>
+      </c>
+      <c r="D29" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>146</v>
+      </c>
+      <c r="C30" t="s">
+        <v>236</v>
+      </c>
+      <c r="D30" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>32</v>
       </c>
-      <c r="D11" t="s">
+      <c r="B31" t="s">
+        <v>147</v>
+      </c>
+      <c r="C31" t="s">
+        <v>242</v>
+      </c>
+      <c r="D31" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>148</v>
+      </c>
+      <c r="C32" t="s">
+        <v>243</v>
+      </c>
+      <c r="D32" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>149</v>
+      </c>
+      <c r="C33" t="s">
+        <v>243</v>
+      </c>
+      <c r="D33" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>150</v>
+      </c>
+      <c r="C34" t="s">
+        <v>243</v>
+      </c>
+      <c r="D34" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>151</v>
+      </c>
+      <c r="C35" t="s">
+        <v>240</v>
+      </c>
+      <c r="D35" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>152</v>
+      </c>
+      <c r="C36" t="s">
+        <v>244</v>
+      </c>
+      <c r="D36" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>153</v>
+      </c>
+      <c r="C37" t="s">
+        <v>245</v>
+      </c>
+      <c r="D37" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>154</v>
+      </c>
+      <c r="C38" t="s">
+        <v>239</v>
+      </c>
+      <c r="D38" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" t="s">
+        <v>155</v>
+      </c>
+      <c r="C39" t="s">
+        <v>234</v>
+      </c>
+      <c r="D39" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>156</v>
+      </c>
+      <c r="C40" t="s">
+        <v>246</v>
+      </c>
+      <c r="D40" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>157</v>
+      </c>
+      <c r="C41" t="s">
+        <v>239</v>
+      </c>
+      <c r="D41" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" t="s">
+        <v>158</v>
+      </c>
+      <c r="C42" t="s">
+        <v>247</v>
+      </c>
+      <c r="D42" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" t="s">
+        <v>159</v>
+      </c>
+      <c r="C43" t="s">
+        <v>248</v>
+      </c>
+      <c r="D43" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" t="s">
+        <v>160</v>
+      </c>
+      <c r="C44" t="s">
+        <v>242</v>
+      </c>
+      <c r="D44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" t="s">
+        <v>161</v>
+      </c>
+      <c r="C45" t="s">
+        <v>249</v>
+      </c>
+      <c r="D45" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" t="s">
+        <v>162</v>
+      </c>
+      <c r="C46" t="s">
+        <v>249</v>
+      </c>
+      <c r="D46" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" t="s">
+        <v>163</v>
+      </c>
+      <c r="C47" t="s">
+        <v>236</v>
+      </c>
+      <c r="D47" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" t="s">
+        <v>164</v>
+      </c>
+      <c r="C48" t="s">
+        <v>250</v>
+      </c>
+      <c r="D48" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" t="s">
+        <v>165</v>
+      </c>
+      <c r="C49" t="s">
+        <v>239</v>
+      </c>
+      <c r="D49" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" t="s">
+        <v>166</v>
+      </c>
+      <c r="C50" t="s">
+        <v>251</v>
+      </c>
+      <c r="D50" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" t="s">
+        <v>167</v>
+      </c>
+      <c r="C51" t="s">
+        <v>243</v>
+      </c>
+      <c r="D51" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" t="s">
+        <v>168</v>
+      </c>
+      <c r="C52" t="s">
+        <v>252</v>
+      </c>
+      <c r="D52" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" t="s">
+        <v>169</v>
+      </c>
+      <c r="C53" t="s">
+        <v>253</v>
+      </c>
+      <c r="D53" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" t="s">
+        <v>170</v>
+      </c>
+      <c r="C54" t="s">
+        <v>240</v>
+      </c>
+      <c r="D54" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" t="s">
+        <v>171</v>
+      </c>
+      <c r="C55" t="s">
+        <v>234</v>
+      </c>
+      <c r="D55" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" t="s">
+        <v>172</v>
+      </c>
+      <c r="C56" t="s">
+        <v>254</v>
+      </c>
+      <c r="D56" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" t="s">
+        <v>173</v>
+      </c>
+      <c r="C57" t="s">
+        <v>241</v>
+      </c>
+      <c r="D57" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" t="s">
+        <v>174</v>
+      </c>
+      <c r="C58" t="s">
+        <v>249</v>
+      </c>
+      <c r="D58" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" t="s">
+        <v>175</v>
+      </c>
+      <c r="C59" t="s">
+        <v>255</v>
+      </c>
+      <c r="D59" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" t="s">
+        <v>176</v>
+      </c>
+      <c r="C60" t="s">
+        <v>256</v>
+      </c>
+      <c r="D60" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" t="s">
+        <v>177</v>
+      </c>
+      <c r="C61" t="s">
+        <v>257</v>
+      </c>
+      <c r="D61" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" t="s">
+        <v>178</v>
+      </c>
+      <c r="C62" t="s">
+        <v>258</v>
+      </c>
+      <c r="D62" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" t="s">
+        <v>179</v>
+      </c>
+      <c r="C63" t="s">
+        <v>242</v>
+      </c>
+      <c r="D63" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" t="s">
+        <v>180</v>
+      </c>
+      <c r="C64" t="s">
+        <v>242</v>
+      </c>
+      <c r="D64" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" t="s">
+        <v>181</v>
+      </c>
+      <c r="C65" t="s">
+        <v>241</v>
+      </c>
+      <c r="D65" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" t="s">
+        <v>182</v>
+      </c>
+      <c r="C66" t="s">
+        <v>243</v>
+      </c>
+      <c r="D66" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" t="s">
+        <v>183</v>
+      </c>
+      <c r="C67" t="s">
+        <v>242</v>
+      </c>
+      <c r="D67" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" t="s">
+        <v>184</v>
+      </c>
+      <c r="C68" t="s">
+        <v>259</v>
+      </c>
+      <c r="D68" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" t="s">
+        <v>185</v>
+      </c>
+      <c r="C69" t="s">
+        <v>260</v>
+      </c>
+      <c r="D69" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" t="s">
+        <v>186</v>
+      </c>
+      <c r="C70" t="s">
+        <v>261</v>
+      </c>
+      <c r="D70" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" t="s">
+        <v>187</v>
+      </c>
+      <c r="C71" t="s">
+        <v>236</v>
+      </c>
+      <c r="D71" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" t="s">
+        <v>188</v>
+      </c>
+      <c r="C72" t="s">
+        <v>262</v>
+      </c>
+      <c r="D72" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" t="s">
+        <v>189</v>
+      </c>
+      <c r="C73" t="s">
+        <v>243</v>
+      </c>
+      <c r="D73" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" t="s">
+        <v>190</v>
+      </c>
+      <c r="C74" t="s">
+        <v>242</v>
+      </c>
+      <c r="D74" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" t="s">
+        <v>191</v>
+      </c>
+      <c r="C75" t="s">
+        <v>253</v>
+      </c>
+      <c r="D75" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" t="s">
+        <v>192</v>
+      </c>
+      <c r="C76" t="s">
+        <v>263</v>
+      </c>
+      <c r="D76" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77" t="s">
+        <v>193</v>
+      </c>
+      <c r="C77" t="s">
+        <v>234</v>
+      </c>
+      <c r="D77" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78" t="s">
+        <v>194</v>
+      </c>
+      <c r="C78" t="s">
+        <v>236</v>
+      </c>
+      <c r="D78" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79" t="s">
+        <v>195</v>
+      </c>
+      <c r="C79" t="s">
+        <v>242</v>
+      </c>
+      <c r="D79" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80" t="s">
+        <v>196</v>
+      </c>
+      <c r="C80" t="s">
+        <v>264</v>
+      </c>
+      <c r="D80" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81" t="s">
+        <v>197</v>
+      </c>
+      <c r="C81" t="s">
+        <v>265</v>
+      </c>
+      <c r="D81" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82" t="s">
+        <v>198</v>
+      </c>
+      <c r="C82" t="s">
+        <v>243</v>
+      </c>
+      <c r="D82" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83" t="s">
+        <v>199</v>
+      </c>
+      <c r="C83" t="s">
+        <v>249</v>
+      </c>
+      <c r="D83" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84" t="s">
+        <v>200</v>
+      </c>
+      <c r="C84" t="s">
+        <v>247</v>
+      </c>
+      <c r="D84" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85" t="s">
+        <v>201</v>
+      </c>
+      <c r="C85" t="s">
+        <v>243</v>
+      </c>
+      <c r="D85" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>87</v>
+      </c>
+      <c r="B86" t="s">
+        <v>202</v>
+      </c>
+      <c r="C86" t="s">
+        <v>266</v>
+      </c>
+      <c r="D86" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87" t="s">
+        <v>203</v>
+      </c>
+      <c r="C87" t="s">
+        <v>243</v>
+      </c>
+      <c r="D87" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>89</v>
+      </c>
+      <c r="B88" t="s">
+        <v>204</v>
+      </c>
+      <c r="C88" t="s">
+        <v>242</v>
+      </c>
+      <c r="D88" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>90</v>
+      </c>
+      <c r="B89" t="s">
+        <v>205</v>
+      </c>
+      <c r="C89" t="s">
+        <v>239</v>
+      </c>
+      <c r="D89" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90" t="s">
+        <v>206</v>
+      </c>
+      <c r="C90" t="s">
+        <v>267</v>
+      </c>
+      <c r="D90" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>92</v>
+      </c>
+      <c r="B91" t="s">
+        <v>207</v>
+      </c>
+      <c r="C91" t="s">
+        <v>242</v>
+      </c>
+      <c r="D91" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92" t="s">
+        <v>208</v>
+      </c>
+      <c r="C92" t="s">
+        <v>242</v>
+      </c>
+      <c r="D92" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>94</v>
+      </c>
+      <c r="B93" t="s">
+        <v>209</v>
+      </c>
+      <c r="C93" t="s">
+        <v>268</v>
+      </c>
+      <c r="D93" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>95</v>
+      </c>
+      <c r="B94" t="s">
+        <v>210</v>
+      </c>
+      <c r="C94" t="s">
+        <v>269</v>
+      </c>
+      <c r="D94" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>96</v>
+      </c>
+      <c r="B95" t="s">
+        <v>211</v>
+      </c>
+      <c r="C95" t="s">
+        <v>270</v>
+      </c>
+      <c r="D95" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>97</v>
+      </c>
+      <c r="B96" t="s">
+        <v>212</v>
+      </c>
+      <c r="C96" t="s">
+        <v>242</v>
+      </c>
+      <c r="D96" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>98</v>
+      </c>
+      <c r="B97" t="s">
+        <v>213</v>
+      </c>
+      <c r="C97" t="s">
+        <v>270</v>
+      </c>
+      <c r="D97" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>99</v>
+      </c>
+      <c r="B98" t="s">
+        <v>214</v>
+      </c>
+      <c r="C98" t="s">
+        <v>234</v>
+      </c>
+      <c r="D98" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>100</v>
+      </c>
+      <c r="B99" t="s">
+        <v>215</v>
+      </c>
+      <c r="C99" t="s">
+        <v>234</v>
+      </c>
+      <c r="D99" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>101</v>
+      </c>
+      <c r="B100" t="s">
+        <v>216</v>
+      </c>
+      <c r="C100" t="s">
+        <v>271</v>
+      </c>
+      <c r="D100" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101" t="s">
+        <v>217</v>
+      </c>
+      <c r="C101" t="s">
+        <v>242</v>
+      </c>
+      <c r="D101" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>103</v>
+      </c>
+      <c r="B102" t="s">
+        <v>218</v>
+      </c>
+      <c r="C102" t="s">
+        <v>272</v>
+      </c>
+      <c r="D102" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>104</v>
+      </c>
+      <c r="B103" t="s">
+        <v>219</v>
+      </c>
+      <c r="C103" t="s">
+        <v>236</v>
+      </c>
+      <c r="D103" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>105</v>
+      </c>
+      <c r="B104" t="s">
+        <v>220</v>
+      </c>
+      <c r="C104" t="s">
+        <v>243</v>
+      </c>
+      <c r="D104" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>106</v>
+      </c>
+      <c r="B105" t="s">
+        <v>221</v>
+      </c>
+      <c r="C105" t="s">
+        <v>246</v>
+      </c>
+      <c r="D105" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>107</v>
+      </c>
+      <c r="B106" t="s">
+        <v>222</v>
+      </c>
+      <c r="C106" t="s">
+        <v>239</v>
+      </c>
+      <c r="D106" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>108</v>
+      </c>
+      <c r="B107" t="s">
+        <v>223</v>
+      </c>
+      <c r="C107" t="s">
+        <v>239</v>
+      </c>
+      <c r="D107" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>109</v>
+      </c>
+      <c r="B108" t="s">
+        <v>224</v>
+      </c>
+      <c r="C108" t="s">
+        <v>242</v>
+      </c>
+      <c r="D108" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>110</v>
+      </c>
+      <c r="B109" t="s">
+        <v>225</v>
+      </c>
+      <c r="C109" t="s">
+        <v>246</v>
+      </c>
+      <c r="D109" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>111</v>
+      </c>
+      <c r="B110" t="s">
+        <v>226</v>
+      </c>
+      <c r="C110" t="s">
+        <v>268</v>
+      </c>
+      <c r="D110" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>112</v>
+      </c>
+      <c r="B111" t="s">
+        <v>227</v>
+      </c>
+      <c r="C111" t="s">
+        <v>273</v>
+      </c>
+      <c r="D111" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>113</v>
+      </c>
+      <c r="B112" t="s">
+        <v>228</v>
+      </c>
+      <c r="C112" t="s">
+        <v>274</v>
+      </c>
+      <c r="D112" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>114</v>
+      </c>
+      <c r="B113" t="s">
+        <v>229</v>
+      </c>
+      <c r="C113" t="s">
+        <v>275</v>
+      </c>
+      <c r="D113" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>115</v>
+      </c>
+      <c r="B114" t="s">
+        <v>230</v>
+      </c>
+      <c r="C114" t="s">
+        <v>246</v>
+      </c>
+      <c r="D114" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>116</v>
+      </c>
+      <c r="B115" t="s">
+        <v>231</v>
+      </c>
+      <c r="C115" t="s">
+        <v>246</v>
+      </c>
+      <c r="D115" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>117</v>
+      </c>
+      <c r="B116" t="s">
+        <v>232</v>
+      </c>
+      <c r="C116" t="s">
+        <v>243</v>
+      </c>
+      <c r="D116" t="s">
+        <v>276</v>
       </c>
     </row>
   </sheetData>
